--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori1/42/correct_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori1/42/correct_predictions_42.xlsx
@@ -1277,21 +1277,21 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Precision Landing . Correcting Landing Position .</t>
+          <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-13</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1316,12 +1316,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1337,21 +1337,21 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Precision Landing . Locating Landing Point .</t>
+          <t>Precision Landing . Correcting Landing Position .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1397,21 +1397,21 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SD card speed low . Change card .</t>
+          <t>Precision Landing . Locating Landing Point .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SD card speed low</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1436,12 +1436,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Change card</t>
+          <t>SD card speed low</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1457,31 +1457,31 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
+          <t>SD card speed low . Change card .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>Change card</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori1/42/correct_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori1/42/correct_predictions_42.xlsx
@@ -1277,21 +1277,21 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Precision Landing . Correcting Landing Position .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Propulsion output is limited to ensure the health of the battery</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3-13</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1316,12 +1316,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1337,21 +1337,21 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Precision Landing . Correcting Landing Position .</t>
+          <t>Precision Landing . Locating Landing Point .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1397,21 +1397,21 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Precision Landing . Locating Landing Point .</t>
+          <t>SD card speed low . Change card .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>SD card speed low</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1436,12 +1436,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SD card speed low</t>
+          <t>Change card</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1457,31 +1457,31 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SD card speed low . Change card .</t>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Change card</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
